--- a/src/Excel/DepositoEfectivoLocalExtranjero.xlsx
+++ b/src/Excel/DepositoEfectivoLocalExtranjero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9715FB4-ADD5-41BD-BF1B-DA9BA4BF2877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDF0FE-EC02-4514-8786-8A69B6703B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepositoEfectivoLocalExtranjero" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:25:12</t>
+    <t>7 mar. 2023, 08:23:03</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,7 +411,7 @@
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
